--- a/src/main/resources/RulesData.xlsx
+++ b/src/main/resources/RulesData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\Projects\CustomRuleEngine\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\Projects\RulesEngine\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB17573-ACA8-4E18-87F1-159077AB1D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3F70FC-979A-4E98-8F91-0D0EE59A78F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE8559CB-F66A-4800-ABFD-AB7DB9A8AAD8}"/>
+    <workbookView xWindow="5400" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{EE8559CB-F66A-4800-ABFD-AB7DB9A8AAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,17 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>Rules</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Disqualified</t>
-  </si>
-  <si>
     <t>CreditScore</t>
   </si>
   <si>
@@ -52,19 +46,73 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>SpecialRateProductName</t>
-  </si>
-  <si>
-    <t>SpecialProductDiscountRate</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
+    <t>RuleName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>7-1 ARM</t>
+  </si>
+  <si>
+    <t>Decrease_Interest_rate</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Malini</t>
+  </si>
+  <si>
     <t>Rule2</t>
   </si>
   <si>
-    <t>Rule3</t>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>testT</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>madi</t>
+  </si>
+  <si>
+    <t>valentina</t>
+  </si>
+  <si>
+    <t>Hazel</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Rule6</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>jasmine</t>
   </si>
 </sst>
 </file>
@@ -100,8 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,101 +465,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C37C357-3CFB-4F83-A449-D80269581980}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>710</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>710</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>720</v>
-      </c>
-      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>620</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>0.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
         <v>730</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>710</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>720</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
-        <v>0.5</v>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>780</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>780</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>